--- a/reference/model/全部Type 尺寸表 整理前.xlsx
+++ b/reference/model/全部Type 尺寸表 整理前.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\140.116.71.101\users\91802-研究\Casper\金屬中心專題\給俊良\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ou918\Downloads\AI-optimization\reference\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A1CA7-8462-491B-8600-77909E4CBAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE3A7D-AC47-48C1-8499-EBB78D933ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,8 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -514,352 +517,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>740</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>33.207999999999998</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>200</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>585.53313570828209</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2">
+        <v>695.05850823246533</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>130</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>252.3047827148481</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>320.69528910655185</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>419.30471089344803</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>-221.74752788560059</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>369.27806459162787</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>2000</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>2000</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>706.79199999999992</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>740</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>540</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>200</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>65</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>2000</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>75.000000000000014</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>75.000000000000014</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
